--- a/UAa.xlsx
+++ b/UAa.xlsx
@@ -19,9 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>善用常量数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题踩全了fgets的坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明数组，变量，如果不能确定这个东西的每一位都会后面赋值覆盖的话，一定要初始化！不初始化的时候每一位是随机的，不一定是个什么玩意，注意初始化！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题没过，但是leetcode上有……做leetcode上的吧，怂了。下次这种别拖太久</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -431,6 +443,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAa.xlsx
+++ b/UAa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>善用常量数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <t>这道题没过，但是leetcode上有……做leetcode上的吧，怂了。下次这种别拖太久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除余技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自顶而下设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,6 +475,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAa.xlsx
+++ b/UAa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>善用常量数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>自顶而下设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没A出来。不调了，感觉硬调性价比不高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,23 +439,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>10082</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="Q1">
+        <v>1589</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>227</v>
       </c>
@@ -459,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>232</v>
       </c>
@@ -467,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>202</v>
       </c>
@@ -475,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>133</v>
       </c>
@@ -483,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>213</v>
       </c>

--- a/UAa.xlsx
+++ b/UAa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>善用常量数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>没A出来。不调了，感觉硬调性价比不高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector用的666，而且这个解耦合的函数设计真的是太舒服了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,6 +505,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAa.xlsx
+++ b/UAa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>善用常量数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,14 @@
   </si>
   <si>
     <t>vector用的666，而且这个解耦合的函数设计真的是太舒服了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UVa12096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个思路很重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +78,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,6 +529,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
